--- a/natmiOut/YoungD2/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/H2-M3-Klrd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.011593476056</v>
+        <v>2.687101333333333</v>
       </c>
       <c r="H2">
-        <v>2.011593476056</v>
+        <v>8.061304</v>
       </c>
       <c r="I2">
-        <v>0.05811006625455632</v>
+        <v>0.07203613341310833</v>
       </c>
       <c r="J2">
-        <v>0.05811006625455632</v>
+        <v>0.07203613341310834</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60714526450443</v>
+        <v>2.292411333333333</v>
       </c>
       <c r="N2">
-        <v>1.60714526450443</v>
+        <v>6.877234</v>
       </c>
       <c r="O2">
-        <v>0.2196938096485887</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="P2">
-        <v>0.2196938096485887</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="Q2">
-        <v>3.232922929151406</v>
+        <v>6.159941550348444</v>
       </c>
       <c r="R2">
-        <v>3.232922929151406</v>
+        <v>55.43947395313599</v>
       </c>
       <c r="S2">
-        <v>0.01276642183439537</v>
+        <v>0.01156643501478042</v>
       </c>
       <c r="T2">
-        <v>0.01276642183439537</v>
+        <v>0.01156643501478042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.011593476056</v>
+        <v>2.687101333333333</v>
       </c>
       <c r="H3">
-        <v>2.011593476056</v>
+        <v>8.061304</v>
       </c>
       <c r="I3">
-        <v>0.05811006625455632</v>
+        <v>0.07203613341310833</v>
       </c>
       <c r="J3">
-        <v>0.05811006625455632</v>
+        <v>0.07203613341310834</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.70824185120511</v>
+        <v>9.964653</v>
       </c>
       <c r="N3">
-        <v>5.70824185120511</v>
+        <v>29.893959</v>
       </c>
       <c r="O3">
-        <v>0.7803061903514114</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="P3">
-        <v>0.7803061903514114</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="Q3">
-        <v>11.48266206763402</v>
+        <v>26.776032362504</v>
       </c>
       <c r="R3">
-        <v>11.48266206763402</v>
+        <v>240.984291262536</v>
       </c>
       <c r="S3">
-        <v>0.04534364442016094</v>
+        <v>0.05027697677700225</v>
       </c>
       <c r="T3">
-        <v>0.04534364442016094</v>
+        <v>0.05027697677700226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.77990227767057</v>
+        <v>2.687101333333333</v>
       </c>
       <c r="H4">
-        <v>2.77990227767057</v>
+        <v>8.061304</v>
       </c>
       <c r="I4">
-        <v>0.08030464776280263</v>
+        <v>0.07203613341310833</v>
       </c>
       <c r="J4">
-        <v>0.08030464776280263</v>
+        <v>0.07203613341310834</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.60714526450443</v>
+        <v>2.020148</v>
       </c>
       <c r="N4">
-        <v>1.60714526450443</v>
+        <v>6.060444</v>
       </c>
       <c r="O4">
-        <v>0.2196938096485887</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="P4">
-        <v>0.2196938096485887</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="Q4">
-        <v>4.467706781343336</v>
+        <v>5.428342384330667</v>
       </c>
       <c r="R4">
-        <v>4.467706781343336</v>
+        <v>48.855081458976</v>
       </c>
       <c r="S4">
-        <v>0.01764243399949813</v>
+        <v>0.01019272162132565</v>
       </c>
       <c r="T4">
-        <v>0.01764243399949813</v>
+        <v>0.01019272162132566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.77990227767057</v>
+        <v>2.825104333333333</v>
       </c>
       <c r="H5">
-        <v>2.77990227767057</v>
+        <v>8.475313</v>
       </c>
       <c r="I5">
-        <v>0.08030464776280263</v>
+        <v>0.07573573431616665</v>
       </c>
       <c r="J5">
-        <v>0.08030464776280263</v>
+        <v>0.07573573431616665</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.70824185120511</v>
+        <v>2.292411333333333</v>
       </c>
       <c r="N5">
-        <v>5.70824185120511</v>
+        <v>6.877234</v>
       </c>
       <c r="O5">
-        <v>0.7803061903514114</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="P5">
-        <v>0.7803061903514114</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="Q5">
-        <v>15.86835452365956</v>
+        <v>6.476301191582444</v>
       </c>
       <c r="R5">
-        <v>15.86835452365956</v>
+        <v>58.286710724242</v>
       </c>
       <c r="S5">
-        <v>0.06266221376330451</v>
+        <v>0.01216045903298321</v>
       </c>
       <c r="T5">
-        <v>0.06266221376330451</v>
+        <v>0.01216045903298321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.9216013631672</v>
+        <v>2.825104333333333</v>
       </c>
       <c r="H6">
-        <v>10.9216013631672</v>
+        <v>8.475313</v>
       </c>
       <c r="I6">
-        <v>0.3154986265235982</v>
+        <v>0.07573573431616665</v>
       </c>
       <c r="J6">
-        <v>0.3154986265235982</v>
+        <v>0.07573573431616665</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.60714526450443</v>
+        <v>9.964653</v>
       </c>
       <c r="N6">
-        <v>1.60714526450443</v>
+        <v>29.893959</v>
       </c>
       <c r="O6">
-        <v>0.2196938096485887</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="P6">
-        <v>0.2196938096485887</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="Q6">
-        <v>17.55259991161929</v>
+        <v>28.151184370463</v>
       </c>
       <c r="R6">
-        <v>17.55259991161929</v>
+        <v>253.360659334167</v>
       </c>
       <c r="S6">
-        <v>0.06931309519986656</v>
+        <v>0.0528590802280655</v>
       </c>
       <c r="T6">
-        <v>0.06931309519986656</v>
+        <v>0.0528590802280655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9216013631672</v>
+        <v>2.825104333333333</v>
       </c>
       <c r="H7">
-        <v>10.9216013631672</v>
+        <v>8.475313</v>
       </c>
       <c r="I7">
-        <v>0.3154986265235982</v>
+        <v>0.07573573431616665</v>
       </c>
       <c r="J7">
-        <v>0.3154986265235982</v>
+        <v>0.07573573431616665</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>5.70824185120511</v>
+        <v>2.020148</v>
       </c>
       <c r="N7">
-        <v>5.70824185120511</v>
+        <v>6.060444</v>
       </c>
       <c r="O7">
-        <v>0.7803061903514114</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="P7">
-        <v>0.7803061903514114</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="Q7">
-        <v>62.34314198340979</v>
+        <v>5.707128868774667</v>
       </c>
       <c r="R7">
-        <v>62.34314198340979</v>
+        <v>51.36415981897201</v>
       </c>
       <c r="S7">
-        <v>0.2461855313237316</v>
+        <v>0.01071619505511793</v>
       </c>
       <c r="T7">
-        <v>0.2461855313237316</v>
+        <v>0.01071619505511793</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.6996928539796</v>
+        <v>12.53801466666667</v>
       </c>
       <c r="H8">
-        <v>16.6996928539796</v>
+        <v>37.614044</v>
       </c>
       <c r="I8">
-        <v>0.4824137032290116</v>
+        <v>0.336120594359241</v>
       </c>
       <c r="J8">
-        <v>0.4824137032290116</v>
+        <v>0.336120594359241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60714526450443</v>
+        <v>2.292411333333333</v>
       </c>
       <c r="N8">
-        <v>1.60714526450443</v>
+        <v>6.877234</v>
       </c>
       <c r="O8">
-        <v>0.2196938096485887</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="P8">
-        <v>0.2196938096485887</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="Q8">
-        <v>26.83883228895178</v>
+        <v>28.74228691936622</v>
       </c>
       <c r="R8">
-        <v>26.83883228895178</v>
+        <v>258.680582274296</v>
       </c>
       <c r="S8">
-        <v>0.1059833042890652</v>
+        <v>0.05396898511321387</v>
       </c>
       <c r="T8">
-        <v>0.1059833042890652</v>
+        <v>0.05396898511321387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,119 +971,119 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.6996928539796</v>
+        <v>12.53801466666667</v>
       </c>
       <c r="H9">
-        <v>16.6996928539796</v>
+        <v>37.614044</v>
       </c>
       <c r="I9">
-        <v>0.4824137032290116</v>
+        <v>0.336120594359241</v>
       </c>
       <c r="J9">
-        <v>0.4824137032290116</v>
+        <v>0.336120594359241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.70824185120511</v>
+        <v>9.964653</v>
       </c>
       <c r="N9">
-        <v>5.70824185120511</v>
+        <v>29.893959</v>
       </c>
       <c r="O9">
-        <v>0.7803061903514114</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="P9">
-        <v>0.7803061903514114</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="Q9">
-        <v>95.32588565135725</v>
+        <v>124.936965462244</v>
       </c>
       <c r="R9">
-        <v>95.32588565135725</v>
+        <v>1124.432689160196</v>
       </c>
       <c r="S9">
-        <v>0.3764303989399464</v>
+        <v>0.2345923707476037</v>
       </c>
       <c r="T9">
-        <v>0.3764303989399464</v>
+        <v>0.2345923707476037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.93616895648894</v>
+        <v>12.53801466666667</v>
       </c>
       <c r="H10">
-        <v>1.93616895648894</v>
+        <v>37.614044</v>
       </c>
       <c r="I10">
-        <v>0.05593123445706349</v>
+        <v>0.336120594359241</v>
       </c>
       <c r="J10">
-        <v>0.05593123445706349</v>
+        <v>0.336120594359241</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.60714526450443</v>
+        <v>2.020148</v>
       </c>
       <c r="N10">
-        <v>1.60714526450443</v>
+        <v>6.060444</v>
       </c>
       <c r="O10">
-        <v>0.2196938096485887</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="P10">
-        <v>0.2196938096485887</v>
+        <v>0.1414945686059116</v>
       </c>
       <c r="Q10">
-        <v>3.111704769701683</v>
+        <v>25.32864525283734</v>
       </c>
       <c r="R10">
-        <v>3.111704769701683</v>
+        <v>227.957807275536</v>
       </c>
       <c r="S10">
-        <v>0.01228774597622069</v>
+        <v>0.0475592384984234</v>
       </c>
       <c r="T10">
-        <v>0.01228774597622069</v>
+        <v>0.0475592384984234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.93616895648894</v>
+        <v>16.71072966666667</v>
       </c>
       <c r="H11">
-        <v>1.93616895648894</v>
+        <v>50.132189</v>
       </c>
       <c r="I11">
-        <v>0.05593123445706349</v>
+        <v>0.44798323634677</v>
       </c>
       <c r="J11">
-        <v>0.05593123445706349</v>
+        <v>0.44798323634677</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.70824185120511</v>
+        <v>2.292411333333333</v>
       </c>
       <c r="N11">
-        <v>5.70824185120511</v>
+        <v>6.877234</v>
       </c>
       <c r="O11">
-        <v>0.7803061903514114</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="P11">
-        <v>0.7803061903514114</v>
+        <v>0.1605643510660122</v>
       </c>
       <c r="Q11">
-        <v>11.05212066843429</v>
+        <v>38.30786607613622</v>
       </c>
       <c r="R11">
-        <v>11.05212066843429</v>
+        <v>344.770794685226</v>
       </c>
       <c r="S11">
-        <v>0.0436434884808428</v>
+        <v>0.07193013763247111</v>
       </c>
       <c r="T11">
-        <v>0.0436434884808428</v>
+        <v>0.07193013763247111</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,489 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.267994824575188</v>
+        <v>16.71072966666667</v>
       </c>
       <c r="H12">
-        <v>0.267994824575188</v>
+        <v>50.132189</v>
       </c>
       <c r="I12">
-        <v>0.007741721772967628</v>
+        <v>0.44798323634677</v>
       </c>
       <c r="J12">
-        <v>0.007741721772967628</v>
+        <v>0.44798323634677</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.60714526450443</v>
+        <v>9.964653</v>
       </c>
       <c r="N12">
-        <v>1.60714526450443</v>
+        <v>29.893959</v>
       </c>
       <c r="O12">
-        <v>0.2196938096485887</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="P12">
-        <v>0.2196938096485887</v>
+        <v>0.6979410803280761</v>
       </c>
       <c r="Q12">
-        <v>0.4307066132277088</v>
+        <v>166.516622505139</v>
       </c>
       <c r="R12">
-        <v>0.4307066132277088</v>
+        <v>1498.649602546251</v>
       </c>
       <c r="S12">
-        <v>0.001700808349542685</v>
+        <v>0.3126659039447325</v>
       </c>
       <c r="T12">
-        <v>0.001700808349542685</v>
+        <v>0.3126659039447325</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16.71072966666667</v>
+      </c>
+      <c r="H13">
+        <v>50.132189</v>
+      </c>
+      <c r="I13">
+        <v>0.44798323634677</v>
+      </c>
+      <c r="J13">
+        <v>0.44798323634677</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>2.020148</v>
+      </c>
+      <c r="N13">
+        <v>6.060444</v>
+      </c>
+      <c r="O13">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="P13">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="Q13">
+        <v>33.75814711465733</v>
+      </c>
+      <c r="R13">
+        <v>303.823324031916</v>
+      </c>
+      <c r="S13">
+        <v>0.06338719476956634</v>
+      </c>
+      <c r="T13">
+        <v>0.06338719476956634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.124635</v>
+      </c>
+      <c r="H14">
+        <v>6.373905000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.05695746878451406</v>
+      </c>
+      <c r="J14">
+        <v>0.05695746878451406</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.292411333333333</v>
+      </c>
+      <c r="N14">
+        <v>6.877234</v>
+      </c>
+      <c r="O14">
+        <v>0.1605643510660122</v>
+      </c>
+      <c r="P14">
+        <v>0.1605643510660122</v>
+      </c>
+      <c r="Q14">
+        <v>4.870537353196667</v>
+      </c>
+      <c r="R14">
+        <v>43.83483617877</v>
+      </c>
+      <c r="S14">
+        <v>0.009145339013748149</v>
+      </c>
+      <c r="T14">
+        <v>0.009145339013748149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.124635</v>
+      </c>
+      <c r="H15">
+        <v>6.373905000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.05695746878451406</v>
+      </c>
+      <c r="J15">
+        <v>0.05695746878451406</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.964653</v>
+      </c>
+      <c r="N15">
+        <v>29.893959</v>
+      </c>
+      <c r="O15">
+        <v>0.6979410803280761</v>
+      </c>
+      <c r="P15">
+        <v>0.6979410803280761</v>
+      </c>
+      <c r="Q15">
+        <v>21.171250526655</v>
+      </c>
+      <c r="R15">
+        <v>190.541254739895</v>
+      </c>
+      <c r="S15">
+        <v>0.03975295729621641</v>
+      </c>
+      <c r="T15">
+        <v>0.03975295729621642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.124635</v>
+      </c>
+      <c r="H16">
+        <v>6.373905000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.05695746878451406</v>
+      </c>
+      <c r="J16">
+        <v>0.05695746878451406</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>2.020148</v>
+      </c>
+      <c r="N16">
+        <v>6.060444</v>
+      </c>
+      <c r="O16">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="P16">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="Q16">
+        <v>4.29207714598</v>
+      </c>
+      <c r="R16">
+        <v>38.62869431382001</v>
+      </c>
+      <c r="S16">
+        <v>0.00805917247454949</v>
+      </c>
+      <c r="T16">
+        <v>0.008059172474549492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4165466666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.24964</v>
+      </c>
+      <c r="I17">
+        <v>0.01116683278019992</v>
+      </c>
+      <c r="J17">
+        <v>0.01116683278019992</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.292411333333333</v>
+      </c>
+      <c r="N17">
+        <v>6.877234</v>
+      </c>
+      <c r="O17">
+        <v>0.1605643510660122</v>
+      </c>
+      <c r="P17">
+        <v>0.1605643510660122</v>
+      </c>
+      <c r="Q17">
+        <v>0.9548962995288889</v>
+      </c>
+      <c r="R17">
+        <v>8.59406669576</v>
+      </c>
+      <c r="S17">
+        <v>0.001792995258815473</v>
+      </c>
+      <c r="T17">
+        <v>0.001792995258815473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.267994824575188</v>
-      </c>
-      <c r="H13">
-        <v>0.267994824575188</v>
-      </c>
-      <c r="I13">
-        <v>0.007741721772967628</v>
-      </c>
-      <c r="J13">
-        <v>0.007741721772967628</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.70824185120511</v>
-      </c>
-      <c r="N13">
-        <v>5.70824185120511</v>
-      </c>
-      <c r="O13">
-        <v>0.7803061903514114</v>
-      </c>
-      <c r="P13">
-        <v>0.7803061903514114</v>
-      </c>
-      <c r="Q13">
-        <v>1.52977927354646</v>
-      </c>
-      <c r="R13">
-        <v>1.52977927354646</v>
-      </c>
-      <c r="S13">
-        <v>0.006040913423424944</v>
-      </c>
-      <c r="T13">
-        <v>0.006040913423424944</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4165466666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.24964</v>
+      </c>
+      <c r="I18">
+        <v>0.01116683278019992</v>
+      </c>
+      <c r="J18">
+        <v>0.01116683278019992</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.964653</v>
+      </c>
+      <c r="N18">
+        <v>29.893959</v>
+      </c>
+      <c r="O18">
+        <v>0.6979410803280761</v>
+      </c>
+      <c r="P18">
+        <v>0.6979410803280761</v>
+      </c>
+      <c r="Q18">
+        <v>4.15074299164</v>
+      </c>
+      <c r="R18">
+        <v>37.35668692476</v>
+      </c>
+      <c r="S18">
+        <v>0.007793791334455703</v>
+      </c>
+      <c r="T18">
+        <v>0.007793791334455703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4165466666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.24964</v>
+      </c>
+      <c r="I19">
+        <v>0.01116683278019992</v>
+      </c>
+      <c r="J19">
+        <v>0.01116683278019992</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>2.020148</v>
+      </c>
+      <c r="N19">
+        <v>6.060444</v>
+      </c>
+      <c r="O19">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="P19">
+        <v>0.1414945686059116</v>
+      </c>
+      <c r="Q19">
+        <v>0.8414859155733335</v>
+      </c>
+      <c r="R19">
+        <v>7.573373240160001</v>
+      </c>
+      <c r="S19">
+        <v>0.001580046186928739</v>
+      </c>
+      <c r="T19">
+        <v>0.001580046186928739</v>
       </c>
     </row>
   </sheetData>
